--- a/base de donnée.xlsx
+++ b/base de donnée.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
